--- a/medicine/Mort/Cimetière_parisien_de_Bagneux/Cimetière_parisien_de_Bagneux.xlsx
+++ b/medicine/Mort/Cimetière_parisien_de_Bagneux/Cimetière_parisien_de_Bagneux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_parisien_de_Bagneux</t>
+          <t>Cimetière_parisien_de_Bagneux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière parisien de Bagneux est un des cimetières parisiens extra muros, qui dépend de la Ville de Paris. Il est situé dans la commune de Bagneux, dans le département des Hauts-de-Seine. Son entrée principale est située au 45 de l'avenue Marx-Dormoy. Ses deux autres entrées sont situées à l'angle de l'avenue Jean-Jaurès (Porte de Fontenay) et rue Égalité (Porte de Bagneux).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_parisien_de_Bagneux</t>
+          <t>Cimetière_parisien_de_Bagneux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un décret du 12 mai 1884 déclare d'utilité publique l'établissement d'un cimetière parisien sur le territoire de Bagneux, par suite de l'accroissement de la population parisienne, et la généralisation des concessions individuelles. La ville de Paris fait donc l'acquisition d'un terrain de près de 62 hectares, par voie amiable et expropriation, et la commune de Bagneux doit céder deux voies sur le terrain. Le cimetière a été ouvert le 15 novembre 1886 en même temps que le cimetière parisien de Pantin[1]. Ces deux cimetières présentent des portes d'entrée du même modèle.
-Le cimetière parisien de Bagneux totalise plus de 83 000 concessions pour une superficie de 61,52 hectares[2]. Chaque allée est plantée d'une espèce particulière et différente d'arbre, dont elle tire son nom[3]. Avenue des Érables champêtres, des Sycomores, des Marronniers d'Inde, des Ormes de Pumila, plus de 5600 arbres de 49 essences différentes[4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un décret du 12 mai 1884 déclare d'utilité publique l'établissement d'un cimetière parisien sur le territoire de Bagneux, par suite de l'accroissement de la population parisienne, et la généralisation des concessions individuelles. La ville de Paris fait donc l'acquisition d'un terrain de près de 62 hectares, par voie amiable et expropriation, et la commune de Bagneux doit céder deux voies sur le terrain. Le cimetière a été ouvert le 15 novembre 1886 en même temps que le cimetière parisien de Pantin. Ces deux cimetières présentent des portes d'entrée du même modèle.
+Le cimetière parisien de Bagneux totalise plus de 83 000 concessions pour une superficie de 61,52 hectares. Chaque allée est plantée d'une espèce particulière et différente d'arbre, dont elle tire son nom. Avenue des Érables champêtres, des Sycomores, des Marronniers d'Inde, des Ormes de Pumila, plus de 5600 arbres de 49 essences différentes
 Le cimetière parisien de Bagneux est souvent appelé « cimetière juif » car il comporte de nombreuses sections réservées aux israélites. S'y trouve en particulier une série de monuments d'une taille imposante : ce sont des tombes collectives appartenant à diverses sociétés de secours mutuel destinées à assurer une sépulture digne aux pauvres.
-Il a fait l'objet de profanations de nature antisémite en avril 1981[5],[6].
+Il a fait l'objet de profanations de nature antisémite en avril 1981,.
 Il est desservi depuis janvier 2022 par la station de métro Barbara, qui rend hommage à la chanteuse, inhumée dans le cimetière.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_parisien_de_Bagneux</t>
+          <t>Cimetière_parisien_de_Bagneux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Monuments et sites remarquables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Monument du souvenir, dans l'avenue Principale, créé par Jean Camille Formigé.
 À proximité de l'entrée principale (45, avenue Marx-Dormoy à Bagneux), se trouve le Monument aux combattants juifs morts pour la France pendant la Seconde Guerre mondiale, où se déroulent chaque année des cérémonies du souvenir.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_parisien_de_Bagneux</t>
+          <t>Cimetière_parisien_de_Bagneux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,14 +598,11 @@
           <t>Personnalités inhumées dans ce cimetière</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sont notamment inhumés dans ce cimetière[2] :
-Oscar Wilde
-L’écrivain de langue anglaise Oscar Wilde mourut à l’hôtel d’Alsace, au 13 de la rue des Beaux-Arts dans le VIe arrondissement de Paris, le vendredi 30 novembre 1900[16].
-Le lundi 3 décembre 1900, il est inhumé au cimetière parisien de Bagneux[16].
-Cette tombe de Bagneux comportait une inscription en latin tirée du chapitre XXIX du Livre de Job : « Verbis meis addere nihil audebant et super illos stillabat eloquium meum » (« Lorsque j’avais parlé, l’on ne répliquait pas et sur eux ma parole tombait goutte à goutte » ; version Crampon[17]).
-Ses restes sont transférés en 1909 au cimetière parisien du Père-Lachaise, division 89, dans la fameuse « tombe d’Oscar Wilde ».
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sont notamment inhumés dans ce cimetière :
 </t>
         </is>
       </c>
@@ -600,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_parisien_de_Bagneux</t>
+          <t>Cimetière_parisien_de_Bagneux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,10 +628,52 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Personnalités inhumées dans ce cimetière</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Oscar Wilde</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’écrivain de langue anglaise Oscar Wilde mourut à l’hôtel d’Alsace, au 13 de la rue des Beaux-Arts dans le VIe arrondissement de Paris, le vendredi 30 novembre 1900.
+Le lundi 3 décembre 1900, il est inhumé au cimetière parisien de Bagneux.
+Cette tombe de Bagneux comportait une inscription en latin tirée du chapitre XXIX du Livre de Job : « Verbis meis addere nihil audebant et super illos stillabat eloquium meum » (« Lorsque j’avais parlé, l’on ne répliquait pas et sur eux ma parole tombait goutte à goutte » ; version Crampon).
+Ses restes sont transférés en 1909 au cimetière parisien du Père-Lachaise, division 89, dans la fameuse « tombe d’Oscar Wilde ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_parisien_de_Bagneux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_parisien_de_Bagneux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Carré militaire des soldats français.
